--- a/Input/NetMigration_CMAP.xlsx
+++ b/Input/NetMigration_CMAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmapil-my.sharepoint.com/personal/amcadams_cmap_illinois_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amcadams\OneDrive - Chicago Metropolitan Agency for Planning\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
         <v>2030</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>2030</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-24000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>2030</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,6 +655,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007E4401432919E48A67AF1BA2141DC10" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9cd1da069ec09c636c0b94a4ab15d117">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b87684af-bef0-40b7-97cd-63b35f783779" xmlns:ns4="29b2ff15-f619-4740-bc35-6887da9102a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51a9c14bdc4a76ccc9b88ddfd170d770" ns3:_="" ns4:_="">
     <xsd:import namespace="b87684af-bef0-40b7-97cd-63b35f783779"/>
@@ -851,22 +866,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B097B1C0-D82B-4862-B210-738A5A3A3605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="29b2ff15-f619-4740-bc35-6887da9102a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b87684af-bef0-40b7-97cd-63b35f783779"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0553BE-6FFF-4BB6-8FF1-82E82A73BAD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFEEEAA-8617-415F-930B-22011CE55E54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -883,29 +908,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0553BE-6FFF-4BB6-8FF1-82E82A73BAD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B097B1C0-D82B-4862-B210-738A5A3A3605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b87684af-bef0-40b7-97cd-63b35f783779"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="29b2ff15-f619-4740-bc35-6887da9102a1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input/NetMigration_CMAP.xlsx
+++ b/Input/NetMigration_CMAP.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
         <v>2025</v>
       </c>
       <c r="C3">
-        <v>-20000</v>
+        <v>-35000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>2035</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>2035</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>2035</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-24000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>2035</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,21 +655,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007E4401432919E48A67AF1BA2141DC10" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9cd1da069ec09c636c0b94a4ab15d117">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b87684af-bef0-40b7-97cd-63b35f783779" xmlns:ns4="29b2ff15-f619-4740-bc35-6887da9102a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51a9c14bdc4a76ccc9b88ddfd170d770" ns3:_="" ns4:_="">
     <xsd:import namespace="b87684af-bef0-40b7-97cd-63b35f783779"/>
@@ -866,32 +851,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B097B1C0-D82B-4862-B210-738A5A3A3605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="29b2ff15-f619-4740-bc35-6887da9102a1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b87684af-bef0-40b7-97cd-63b35f783779"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0553BE-6FFF-4BB6-8FF1-82E82A73BAD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEFEEEAA-8617-415F-930B-22011CE55E54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -908,4 +883,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0553BE-6FFF-4BB6-8FF1-82E82A73BAD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B097B1C0-D82B-4862-B210-738A5A3A3605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="29b2ff15-f619-4740-bc35-6887da9102a1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b87684af-bef0-40b7-97cd-63b35f783779"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>